--- a/data/Complexity_results.xlsx
+++ b/data/Complexity_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Desktop\Bachelorarbeit\Code\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38323CB-85D9-47DB-8FDE-48A6CD32CABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE1DDD1-41AD-4120-B891-B37D94FE9FCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>outlier_shift</t>
   </si>
   <si>
-    <t>krr</t>
+    <t>KGARD</t>
   </si>
   <si>
-    <t>huber_krr</t>
+    <t>KRR</t>
   </si>
   <si>
-    <t>weighted_krr</t>
+    <t>Huber</t>
   </si>
   <si>
-    <t>KGARD</t>
+    <t>RKR</t>
   </si>
 </sst>
 </file>
@@ -85,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -93,13 +93,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -188,7 +253,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>krr</c:v>
+                  <c:v>KRR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -262,10 +327,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -325,75 +390,111 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$21</c:f>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.18178130000000001</c:v>
+                  <c:v>0.16095139999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18135875000000001</c:v>
+                  <c:v>0.16114415000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18547250000000001</c:v>
+                  <c:v>0.16629165000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18874830000000001</c:v>
+                  <c:v>0.16748705</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19442134999999999</c:v>
+                  <c:v>0.17460870000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2042949</c:v>
+                  <c:v>0.18491830000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2148476</c:v>
+                  <c:v>0.20483385000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.23402244999999999</c:v>
+                  <c:v>0.21595809999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25057914999999997</c:v>
+                  <c:v>0.23721904999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27956370000000003</c:v>
+                  <c:v>0.26267984999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31298939999999997</c:v>
+                  <c:v>0.29757620000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.34444249999999998</c:v>
+                  <c:v>0.32149860000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38310755000000002</c:v>
+                  <c:v>0.36428909999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44302140000000001</c:v>
+                  <c:v>0.40619644999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49011375000000001</c:v>
+                  <c:v>0.46379294999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5335297</c:v>
+                  <c:v>0.51509804999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.60323510000000002</c:v>
+                  <c:v>0.59283924999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.69816279999999997</c:v>
+                  <c:v>0.66165399999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7885373</c:v>
+                  <c:v>0.76106929999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88564229999999999</c:v>
+                  <c:v>0.93085424999999988</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2867622000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9251993999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7359439000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7719317999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.0698914999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>16.836701300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +515,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>huber_krr</c:v>
+                  <c:v>Huber</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -488,10 +589,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -551,75 +652,111 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:f>Sheet1!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.21264045000000001</c:v>
+                  <c:v>0.19157774999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2270143</c:v>
+                  <c:v>0.19964019999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23489119999999999</c:v>
+                  <c:v>0.20637395</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27420044999999998</c:v>
+                  <c:v>0.25229184999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33732760000000001</c:v>
+                  <c:v>0.28337770000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.40599210000000002</c:v>
+                  <c:v>0.36488340000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49943939999999998</c:v>
+                  <c:v>0.43340794999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62931160000000008</c:v>
+                  <c:v>0.49564035000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69788605000000004</c:v>
+                  <c:v>0.67221339999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95720879999999997</c:v>
+                  <c:v>0.88328589999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1316004500000001</c:v>
+                  <c:v>1.08323065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3401212</c:v>
+                  <c:v>1.4411008999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.67755755</c:v>
+                  <c:v>1.3710739999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.145607</c:v>
+                  <c:v>2.7357634499999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2030753999999999</c:v>
+                  <c:v>2.2961201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.6717577000000001</c:v>
+                  <c:v>3.0899396499999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1151719999999998</c:v>
+                  <c:v>3.5380837999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.9117578000000002</c:v>
+                  <c:v>4.5307591</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3791890000000002</c:v>
+                  <c:v>6.1039077499999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3473043999999996</c:v>
+                  <c:v>10.142275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.8420384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.434101600000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.537259899999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.617641999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.284512200000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>120.23027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -640,7 +777,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>weighted_krr</c:v>
+                  <c:v>RKR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -714,10 +851,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$D$2:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -777,75 +914,111 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$21</c:f>
+              <c:f>Sheet1!$G$2:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.1844355</c:v>
+                  <c:v>0.16837215</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19055754999999999</c:v>
+                  <c:v>0.17874435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1972796</c:v>
+                  <c:v>0.21216180000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2098489</c:v>
+                  <c:v>0.2813042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23427020000000001</c:v>
+                  <c:v>0.37156400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27629484999999998</c:v>
+                  <c:v>0.44704080000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33017279999999999</c:v>
+                  <c:v>0.60108880000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35371485000000003</c:v>
+                  <c:v>0.81229265000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44790780000000002</c:v>
+                  <c:v>1.0962362999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57144715000000001</c:v>
+                  <c:v>1.4350743500000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.70405534999999997</c:v>
+                  <c:v>1.8717458499999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86300189999999999</c:v>
+                  <c:v>2.3909994999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0379010500000001</c:v>
+                  <c:v>3.0265480500000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.25958905</c:v>
+                  <c:v>3.6998745500000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6157357999999999</c:v>
+                  <c:v>4.5674393999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6289475</c:v>
+                  <c:v>5.9113634499999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7213316999999999</c:v>
+                  <c:v>6.9136544999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2998896000000002</c:v>
+                  <c:v>8.2237363999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8112561999999999</c:v>
+                  <c:v>9.9389509999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1786572</c:v>
+                  <c:v>11.5644539</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.4204519</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.487639699999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.893236399999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.5193546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88.312533900000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>308.33046489999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,646 +2146,724 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.15</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="C2">
-        <v>0.15</v>
-      </c>
-      <c r="D2">
-        <v>3.5</v>
-      </c>
-      <c r="E2">
-        <v>0.18178130000000001</v>
-      </c>
-      <c r="F2">
-        <v>0.21264045000000001</v>
-      </c>
-      <c r="G2">
-        <v>0.1844355</v>
+      <c r="E2" s="3">
+        <v>0.16095139999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.19157774999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.16837215</v>
       </c>
       <c r="H2">
-        <v>0.18665319999999999</v>
+        <v>0.16333590000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>0.15</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="2">
         <v>100</v>
       </c>
-      <c r="C3">
-        <v>0.15</v>
-      </c>
-      <c r="D3">
-        <v>3.5</v>
-      </c>
-      <c r="E3">
-        <v>0.18135875000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.2270143</v>
-      </c>
-      <c r="G3">
-        <v>0.19055754999999999</v>
+      <c r="E3" s="3">
+        <v>0.16114415000000001</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.19964019999999999</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.17874435</v>
       </c>
       <c r="H3">
-        <v>0.21191345</v>
+        <v>0.18966759999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
+        <v>0.15</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="C4">
-        <v>0.15</v>
-      </c>
-      <c r="D4">
-        <v>3.5</v>
-      </c>
-      <c r="E4">
-        <v>0.18547250000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.23489119999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.1972796</v>
+      <c r="E4" s="3">
+        <v>0.16629165000000001</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.20637395</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.21216180000000001</v>
       </c>
       <c r="H4">
-        <v>0.29157095</v>
+        <v>0.29480610000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="C5">
+        <v>3.5</v>
+      </c>
+      <c r="D5" s="2">
         <v>200</v>
       </c>
-      <c r="C5">
-        <v>0.15</v>
-      </c>
-      <c r="D5">
-        <v>3.5</v>
-      </c>
-      <c r="E5">
-        <v>0.18874830000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.27420044999999998</v>
-      </c>
-      <c r="G5">
-        <v>0.2098489</v>
+      <c r="E5" s="3">
+        <v>0.16748705</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.25229184999999998</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.2813042</v>
       </c>
       <c r="H5">
-        <v>0.46652090000000002</v>
+        <v>0.45900360000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="2">
         <v>250</v>
       </c>
-      <c r="C6">
-        <v>0.15</v>
-      </c>
-      <c r="D6">
-        <v>3.5</v>
-      </c>
-      <c r="E6">
-        <v>0.19442134999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.33732760000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.23427020000000001</v>
+      <c r="E6" s="3">
+        <v>0.17460870000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.28337770000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.37156400000000001</v>
       </c>
       <c r="H6">
-        <v>0.81802660000000005</v>
+        <v>0.83756120000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7" s="2">
         <v>300</v>
       </c>
-      <c r="C7">
-        <v>0.15</v>
-      </c>
-      <c r="D7">
-        <v>3.5</v>
-      </c>
-      <c r="E7">
-        <v>0.2042949</v>
-      </c>
-      <c r="F7">
-        <v>0.40599210000000002</v>
-      </c>
-      <c r="G7">
-        <v>0.27629484999999998</v>
+      <c r="E7" s="3">
+        <v>0.18491830000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.36488340000000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.44704080000000002</v>
       </c>
       <c r="H7">
-        <v>1.39058905</v>
+        <v>1.4396975000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
+        <v>0.15</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="2">
         <v>350</v>
       </c>
-      <c r="C8">
-        <v>0.15</v>
-      </c>
-      <c r="D8">
-        <v>3.5</v>
-      </c>
-      <c r="E8">
-        <v>0.2148476</v>
-      </c>
-      <c r="F8">
-        <v>0.49943939999999998</v>
-      </c>
-      <c r="G8">
-        <v>0.33017279999999999</v>
+      <c r="E8" s="3">
+        <v>0.20483385000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.43340794999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.60108880000000009</v>
       </c>
       <c r="H8">
-        <v>2.33623855</v>
+        <v>2.5488680000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9">
+        <v>0.15</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="2">
         <v>400</v>
       </c>
-      <c r="C9">
-        <v>0.15</v>
-      </c>
-      <c r="D9">
-        <v>3.5</v>
-      </c>
-      <c r="E9">
-        <v>0.23402244999999999</v>
-      </c>
-      <c r="F9">
-        <v>0.62931160000000008</v>
-      </c>
-      <c r="G9">
-        <v>0.35371485000000003</v>
+      <c r="E9" s="3">
+        <v>0.21595809999999999</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.49564035000000001</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.81229265000000006</v>
       </c>
       <c r="H9">
-        <v>3.4631025000000002</v>
+        <v>3.7150628999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="D10" s="2">
         <v>450</v>
       </c>
-      <c r="C10">
-        <v>0.15</v>
-      </c>
-      <c r="D10">
-        <v>3.5</v>
-      </c>
-      <c r="E10">
-        <v>0.25057914999999997</v>
-      </c>
-      <c r="F10">
-        <v>0.69788605000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.44790780000000002</v>
+      <c r="E10" s="3">
+        <v>0.23721904999999999</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.67221339999999996</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.0962362999999999</v>
       </c>
       <c r="H10">
-        <v>5.2537769499999998</v>
+        <v>5.7154398999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="C11">
-        <v>0.15</v>
-      </c>
-      <c r="D11">
-        <v>3.5</v>
-      </c>
-      <c r="E11">
-        <v>0.27956370000000003</v>
-      </c>
-      <c r="F11">
-        <v>0.95720879999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.57144715000000001</v>
+      <c r="E11" s="3">
+        <v>0.26267984999999999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.88328589999999996</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.4350743500000001</v>
       </c>
       <c r="H11">
-        <v>7.9481726000000004</v>
+        <v>8.3150057000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
+        <v>0.15</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="2">
         <v>550</v>
       </c>
-      <c r="C12">
-        <v>0.15</v>
-      </c>
-      <c r="D12">
-        <v>3.5</v>
-      </c>
-      <c r="E12">
-        <v>0.31298939999999997</v>
-      </c>
-      <c r="F12">
-        <v>1.1316004500000001</v>
-      </c>
-      <c r="G12">
-        <v>0.70405534999999997</v>
+      <c r="E12" s="3">
+        <v>0.29757620000000001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.08323065</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.8717458499999999</v>
       </c>
       <c r="H12">
-        <v>11.797387000000001</v>
+        <v>12.122457300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
       <c r="B13">
+        <v>0.15</v>
+      </c>
+      <c r="C13">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="2">
         <v>600</v>
       </c>
-      <c r="C13">
-        <v>0.15</v>
-      </c>
-      <c r="D13">
-        <v>3.5</v>
-      </c>
-      <c r="E13">
-        <v>0.34444249999999998</v>
-      </c>
-      <c r="F13">
-        <v>1.3401212</v>
-      </c>
-      <c r="G13">
-        <v>0.86300189999999999</v>
+      <c r="E13" s="3">
+        <v>0.32149860000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.4411008999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2.3909994999999999</v>
       </c>
       <c r="H13">
-        <v>16.435172049999998</v>
+        <v>17.0965384</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14">
+        <v>0.15</v>
+      </c>
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="2">
         <v>650</v>
       </c>
-      <c r="C14">
-        <v>0.15</v>
-      </c>
-      <c r="D14">
-        <v>3.5</v>
-      </c>
-      <c r="E14">
-        <v>0.38310755000000002</v>
-      </c>
-      <c r="F14">
-        <v>1.67755755</v>
-      </c>
-      <c r="G14">
-        <v>1.0379010500000001</v>
+      <c r="E14" s="3">
+        <v>0.36428909999999998</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1.3710739999999999</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3.0265480500000002</v>
       </c>
       <c r="H14">
-        <v>22.338605449999999</v>
+        <v>22.481250500000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
+        <v>0.15</v>
+      </c>
+      <c r="C15">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="2">
         <v>700</v>
       </c>
-      <c r="C15">
-        <v>0.15</v>
-      </c>
-      <c r="D15">
-        <v>3.5</v>
-      </c>
-      <c r="E15">
-        <v>0.44302140000000001</v>
-      </c>
-      <c r="F15">
-        <v>2.145607</v>
-      </c>
-      <c r="G15">
-        <v>1.25958905</v>
+      <c r="E15" s="3">
+        <v>0.40619644999999999</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2.7357634499999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3.6998745500000001</v>
+      </c>
+      <c r="H15">
+        <v>30.4996154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <v>3.5</v>
+      </c>
+      <c r="D16" s="2">
         <v>750</v>
       </c>
-      <c r="C16">
-        <v>0.15</v>
-      </c>
-      <c r="D16">
-        <v>3.5</v>
-      </c>
-      <c r="E16">
-        <v>0.49011375000000001</v>
-      </c>
-      <c r="F16">
-        <v>2.2030753999999999</v>
-      </c>
-      <c r="G16">
-        <v>1.6157357999999999</v>
+      <c r="E16" s="3">
+        <v>0.46379294999999998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.2961201</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.5674393999999996</v>
+      </c>
+      <c r="H16">
+        <v>40.237166500000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
       <c r="B17">
+        <v>0.15</v>
+      </c>
+      <c r="C17">
+        <v>3.5</v>
+      </c>
+      <c r="D17" s="2">
         <v>800</v>
       </c>
-      <c r="C17">
-        <v>0.15</v>
-      </c>
-      <c r="D17">
-        <v>3.5</v>
-      </c>
-      <c r="E17">
-        <v>0.5335297</v>
-      </c>
-      <c r="F17">
-        <v>2.6717577000000001</v>
-      </c>
-      <c r="G17">
-        <v>1.6289475</v>
+      <c r="E17" s="3">
+        <v>0.51509804999999997</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3.0899396499999998</v>
+      </c>
+      <c r="G17" s="3">
+        <v>5.9113634499999996</v>
+      </c>
+      <c r="H17">
+        <v>50.408111900000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
+        <v>0.15</v>
+      </c>
+      <c r="C18">
+        <v>3.5</v>
+      </c>
+      <c r="D18" s="2">
         <v>850</v>
       </c>
-      <c r="C18">
-        <v>0.15</v>
-      </c>
-      <c r="D18">
-        <v>3.5</v>
-      </c>
-      <c r="E18">
-        <v>0.60323510000000002</v>
-      </c>
-      <c r="F18">
-        <v>3.1151719999999998</v>
-      </c>
-      <c r="G18">
-        <v>1.7213316999999999</v>
+      <c r="E18" s="3">
+        <v>0.59283924999999993</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.5380837999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6.9136544999999998</v>
+      </c>
+      <c r="H18">
+        <v>61.583039499999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
       <c r="B19">
+        <v>0.15</v>
+      </c>
+      <c r="C19">
+        <v>3.5</v>
+      </c>
+      <c r="D19" s="2">
         <v>900</v>
       </c>
-      <c r="C19">
-        <v>0.15</v>
-      </c>
-      <c r="D19">
-        <v>3.5</v>
-      </c>
-      <c r="E19">
-        <v>0.69816279999999997</v>
-      </c>
-      <c r="F19">
-        <v>2.9117578000000002</v>
-      </c>
-      <c r="G19">
-        <v>2.2998896000000002</v>
+      <c r="E19" s="3">
+        <v>0.66165399999999996</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4.5307591</v>
+      </c>
+      <c r="G19" s="3">
+        <v>8.2237363999999999</v>
+      </c>
+      <c r="H19">
+        <v>77.295050200000006</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
+        <v>0.15</v>
+      </c>
+      <c r="C20">
+        <v>3.5</v>
+      </c>
+      <c r="D20" s="2">
         <v>950</v>
       </c>
-      <c r="C20">
-        <v>0.15</v>
-      </c>
-      <c r="D20">
-        <v>3.5</v>
-      </c>
-      <c r="E20">
-        <v>0.7885373</v>
-      </c>
-      <c r="F20">
-        <v>3.3791890000000002</v>
-      </c>
-      <c r="G20">
-        <v>2.8112561999999999</v>
+      <c r="E20" s="3">
+        <v>0.76106929999999995</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6.1039077499999994</v>
+      </c>
+      <c r="G20" s="3">
+        <v>9.9389509999999994</v>
+      </c>
+      <c r="H20">
+        <v>94.957545100000004</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21">
+        <v>0.15</v>
+      </c>
+      <c r="C21">
+        <v>3.5</v>
+      </c>
+      <c r="D21" s="2">
         <v>1000</v>
       </c>
-      <c r="C21">
-        <v>0.15</v>
-      </c>
-      <c r="D21">
-        <v>3.5</v>
-      </c>
-      <c r="E21">
-        <v>0.88564229999999999</v>
-      </c>
-      <c r="F21">
-        <v>5.3473043999999996</v>
-      </c>
-      <c r="G21">
-        <v>3.1786572</v>
+      <c r="E21" s="3">
+        <v>0.93085424999999988</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10.142275</v>
+      </c>
+      <c r="G21" s="3">
+        <v>11.5644539</v>
+      </c>
+      <c r="H21">
+        <v>114.3013593</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
+        <v>0.15</v>
+      </c>
+      <c r="C22">
+        <v>3.5</v>
+      </c>
+      <c r="D22" s="2">
         <v>1200</v>
       </c>
-      <c r="C22">
-        <v>0.15</v>
-      </c>
-      <c r="D22">
-        <v>3.5</v>
-      </c>
-      <c r="E22">
-        <v>1.2993326999999999</v>
-      </c>
-      <c r="G22">
-        <v>5.6205300999999999</v>
+      <c r="E22" s="3">
+        <v>1.2867622000000001</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10.8420384</v>
+      </c>
+      <c r="G22" s="3">
+        <v>19.4204519</v>
+      </c>
+      <c r="H22">
+        <v>187.88935140000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
+        <v>0.15</v>
+      </c>
+      <c r="C23">
+        <v>3.5</v>
+      </c>
+      <c r="D23" s="2">
         <v>1400</v>
       </c>
-      <c r="C23">
-        <v>0.15</v>
-      </c>
-      <c r="D23">
-        <v>3.5</v>
-      </c>
-      <c r="E23">
-        <v>1.9212654</v>
-      </c>
-      <c r="G23">
-        <v>8.7168572999999991</v>
+      <c r="E23" s="3">
+        <v>1.9251993999999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>17.434101600000002</v>
+      </c>
+      <c r="G23" s="3">
+        <v>30.487639699999999</v>
+      </c>
+      <c r="H23">
+        <v>283.81848389999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
+        <v>0.15</v>
+      </c>
+      <c r="C24">
+        <v>3.5</v>
+      </c>
+      <c r="D24" s="2">
         <v>1600</v>
       </c>
-      <c r="C24">
-        <v>0.15</v>
-      </c>
-      <c r="D24">
-        <v>3.5</v>
-      </c>
-      <c r="E24">
-        <v>2.9016286999999998</v>
-      </c>
-      <c r="G24">
-        <v>12.5159605</v>
+      <c r="E24" s="3">
+        <v>2.7359439000000001</v>
+      </c>
+      <c r="F24" s="3">
+        <v>23.537259899999999</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45.893236399999999</v>
+      </c>
+      <c r="H24">
+        <v>403.68435040000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25">
+        <v>0.15</v>
+      </c>
+      <c r="C25">
+        <v>3.5</v>
+      </c>
+      <c r="D25" s="2">
         <v>1800</v>
       </c>
-      <c r="C25">
-        <v>0.15</v>
-      </c>
-      <c r="D25">
-        <v>3.5</v>
-      </c>
-      <c r="E25">
-        <v>3.7372839999999998</v>
-      </c>
-      <c r="G25">
-        <v>14.3909384</v>
+      <c r="E25" s="3">
+        <v>3.7719317999999999</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43.617641999999996</v>
+      </c>
+      <c r="G25" s="3">
+        <v>64.5193546</v>
+      </c>
+      <c r="H25">
+        <v>549.10964009999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
+        <v>0.15</v>
+      </c>
+      <c r="C26">
+        <v>3.5</v>
+      </c>
+      <c r="D26" s="2">
         <v>2000</v>
       </c>
-      <c r="C26">
+      <c r="E26" s="3">
+        <v>5.0698914999999998</v>
+      </c>
+      <c r="F26" s="3">
+        <v>46.284512200000002</v>
+      </c>
+      <c r="G26" s="3">
+        <v>88.312533900000005</v>
+      </c>
+      <c r="H26">
+        <v>733.64507549999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
         <v>0.15</v>
       </c>
-      <c r="D26">
+      <c r="C27">
         <v>3.5</v>
       </c>
-      <c r="E26">
-        <v>5.2301012</v>
-      </c>
-      <c r="G26">
-        <v>19.668006900000002</v>
+      <c r="D27" s="2">
+        <v>3000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>16.836701300000001</v>
+      </c>
+      <c r="F27" s="4">
+        <v>120.23027</v>
+      </c>
+      <c r="G27" s="3">
+        <v>308.33046489999998</v>
+      </c>
+      <c r="H27">
+        <v>2434.7236440000001</v>
       </c>
     </row>
   </sheetData>
